--- a/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.14 - 6.15 Unit Linked 3pc entry fee.xlsx
+++ b/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.14 - 6.15 Unit Linked 3pc entry fee.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhu\Desktop\LIRV\Textbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VZhu\Documents\GitHub\my_file\LIRV\Textbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="124">
   <si>
     <t>Pricing basis</t>
   </si>
@@ -706,20 +706,24 @@
   <si>
     <t>Account balance (regular approach)</t>
   </si>
+  <si>
+    <t>Look at this ==&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +883,15 @@
       <color rgb="FFFF0000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1283,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1423,6 +1436,30 @@
     <xf numFmtId="166" fontId="20" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1459,10 +1496,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,10 +1514,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,29 +1526,14 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2492,7 +2514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2751,7 +2775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3174,7 +3200,7 @@
       <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3205,6 +3231,7 @@
     </row>
     <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
+      <c r="E2" s="92"/>
     </row>
     <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -3235,8 +3262,8 @@
       </c>
       <c r="Q6"/>
       <c r="R6" s="57">
-        <f>'Shareholder cash flows'!N9/'Policyholder cash flows'!H7</f>
-        <v>0.52601494138215932</v>
+        <f>'Shareholder cash flows'!Q23/'Policyholder cash flows'!H7</f>
+        <v>0.52601494138216287</v>
       </c>
       <c r="S6"/>
       <c r="T6"/>
@@ -3244,52 +3271,52 @@
       <c r="V6"/>
     </row>
     <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="P7" s="61" t="s">
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="P7" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="Y7" s="61" t="s">
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="Y7" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AE7" s="61" t="s">
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AE7" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
     </row>
     <row r="8" spans="1:35" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
       <c r="H8"/>
-      <c r="I8" s="67"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="22" t="s">
         <v>33</v>
       </c>
@@ -3409,16 +3436,16 @@
       </c>
       <c r="Q9" s="23">
         <f>'Policyholder cash flows'!H7*$R$6</f>
-        <v>461.42417707466535</v>
+        <v>461.42417707466848</v>
       </c>
       <c r="R9" s="24">
         <f t="shared" ref="R9:R19" si="0">P9+Q9</f>
-        <v>9649.9999999999964</v>
+        <v>9650</v>
       </c>
       <c r="S9" s="24"/>
       <c r="T9" s="24">
         <f>R9</f>
-        <v>9649.9999999999964</v>
+        <v>9650</v>
       </c>
       <c r="U9" s="59">
         <f>G10+S9-T9</f>
@@ -3429,7 +3456,7 @@
       </c>
       <c r="W9" s="54">
         <f>NPV(Discount_rate,'Shareholder cash flows'!$U10:$U$20)+U9</f>
-        <v>461.42417707466052</v>
+        <v>461.4241770746641</v>
       </c>
       <c r="Y9" s="23">
         <f>'Policyholder cash flows'!D7</f>
@@ -3478,7 +3505,7 @@
         <f>Initial_comm_rate * Single_premium</f>
         <v>300</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="91">
         <f>Initial_expense</f>
         <v>50</v>
       </c>
@@ -3512,7 +3539,7 @@
         <f>K10-L10</f>
         <v>1.5916157281026244E-12</v>
       </c>
-      <c r="N10" s="83">
+      <c r="N10" s="61">
         <f>M9*(1+Investment_rate)+M10</f>
         <v>489.10962769915022</v>
       </c>
@@ -3522,15 +3549,15 @@
       </c>
       <c r="Q10" s="23">
         <f>'Policyholder cash flows'!H8*$R$6</f>
-        <v>438.08617838507587</v>
+        <v>438.08617838507882</v>
       </c>
       <c r="R10" s="24">
         <f t="shared" si="0"/>
-        <v>10177.976550685926</v>
+        <v>10177.976550685929</v>
       </c>
       <c r="S10" s="60">
         <f>(R9)*Investment_rate</f>
-        <v>578.99999999999977</v>
+        <v>579</v>
       </c>
       <c r="T10" s="24">
         <f>R10-R9</f>
@@ -3538,11 +3565,11 @@
       </c>
       <c r="U10" s="59">
         <f>S10-T10</f>
-        <v>51.023449314070376</v>
+        <v>51.023449314070604</v>
       </c>
       <c r="V10" s="24">
         <f>$R$6*'Policyholder cash flows'!F7</f>
-        <v>51.023449314069452</v>
+        <v>51.023449314069801</v>
       </c>
       <c r="Y10" s="23">
         <f>'Policyholder cash flows'!G7</f>
@@ -3560,7 +3587,7 @@
         <f>Z10-AA10</f>
         <v>97</v>
       </c>
-      <c r="AC10" s="83">
+      <c r="AC10" s="61">
         <f>AB9*(1+Investment_rate)+AB10</f>
         <v>44</v>
       </c>
@@ -3580,7 +3607,7 @@
         <f>AF10-AG10</f>
         <v>97.969999999999573</v>
       </c>
-      <c r="AI10" s="83">
+      <c r="AI10" s="61">
         <f>AH9*(1+Investment_rate)+AH10</f>
         <v>-57.850000000000449</v>
       </c>
@@ -3596,7 +3623,7 @@
       <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="91">
         <f>Renewal_expense *(1+Inflation)^(B11-2)</f>
         <v>50</v>
       </c>
@@ -3637,15 +3664,15 @@
       </c>
       <c r="Q11" s="23">
         <f>'Policyholder cash flows'!H9*$R$6</f>
-        <v>410.79672730840747</v>
+        <v>410.79672730841025</v>
       </c>
       <c r="R11" s="24">
         <f t="shared" si="0"/>
-        <v>10682.080521947308</v>
+        <v>10682.080521947311</v>
       </c>
       <c r="S11" s="24">
         <f t="shared" ref="S11:S19" si="9">(R10-E11-D11)*Investment_rate</f>
-        <v>607.67859304115552</v>
+        <v>607.67859304115575</v>
       </c>
       <c r="T11" s="24">
         <f t="shared" ref="T11:T19" si="10">R11-R10</f>
@@ -3653,11 +3680,11 @@
       </c>
       <c r="U11" s="24">
         <f t="shared" ref="U11:U19" si="11">G11+S11-T11</f>
-        <v>53.574621779773565</v>
+        <v>53.574621779773793</v>
       </c>
       <c r="V11" s="24">
         <f>$R$6*'Policyholder cash flows'!F8</f>
-        <v>53.574621779772933</v>
+        <v>53.574621779773295</v>
       </c>
       <c r="Y11" s="23">
         <f>'Policyholder cash flows'!G8</f>
@@ -3705,7 +3732,7 @@
       <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="91">
         <f t="shared" ref="E12:E19" si="16">Renewal_expense *(1+Inflation)^(B12-2)</f>
         <v>51</v>
       </c>
@@ -3746,15 +3773,15 @@
       </c>
       <c r="Q12" s="23">
         <f>'Policyholder cash flows'!H10*$R$6</f>
-        <v>379.19117807815041</v>
+        <v>379.19117807815297</v>
       </c>
       <c r="R12" s="24">
         <f t="shared" si="0"/>
-        <v>11212.692000395387</v>
+        <v>11212.692000395391</v>
       </c>
       <c r="S12" s="24">
         <f t="shared" si="9"/>
-        <v>637.86483131683849</v>
+        <v>637.8648313168386</v>
       </c>
       <c r="T12" s="24">
         <f t="shared" si="10"/>
@@ -3762,11 +3789,11 @@
       </c>
       <c r="U12" s="24">
         <f t="shared" si="11"/>
-        <v>56.253352868758839</v>
+        <v>56.253352868758952</v>
       </c>
       <c r="V12" s="24">
         <f>$R$6*'Policyholder cash flows'!F9</f>
-        <v>56.253352868761567</v>
+        <v>56.253352868761951</v>
       </c>
       <c r="Y12" s="23">
         <f>'Policyholder cash flows'!G9</f>
@@ -3814,7 +3841,7 @@
       <c r="D13" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="91">
         <f t="shared" si="16"/>
         <v>52.019999999999996</v>
       </c>
@@ -3855,27 +3882,27 @@
       </c>
       <c r="Q13" s="23">
         <f>'Policyholder cash flows'!H11*$R$6</f>
-        <v>342.87662825063978</v>
+        <v>342.87662825064211</v>
       </c>
       <c r="R13" s="24">
         <f t="shared" si="0"/>
-        <v>11771.24629990691</v>
+        <v>11771.246299906912</v>
       </c>
       <c r="S13" s="24">
         <f t="shared" si="9"/>
-        <v>669.64032002372323</v>
+        <v>669.64032002372346</v>
       </c>
       <c r="T13" s="24">
         <f t="shared" si="10"/>
-        <v>558.55429951152291</v>
+        <v>558.55429951152109</v>
       </c>
       <c r="U13" s="24">
         <f t="shared" si="11"/>
-        <v>59.066020512200339</v>
+        <v>59.066020512202385</v>
       </c>
       <c r="V13" s="24">
         <f>$R$6*'Policyholder cash flows'!F10</f>
-        <v>59.066020512199657</v>
+        <v>59.066020512200062</v>
       </c>
       <c r="Y13" s="23">
         <f>'Policyholder cash flows'!G10</f>
@@ -3923,7 +3950,7 @@
       <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="91">
         <f t="shared" si="16"/>
         <v>53.060399999999994</v>
       </c>
@@ -3964,15 +3991,15 @@
       </c>
       <c r="Q14" s="23">
         <f>'Policyholder cash flows'!H12*$R$6</f>
-        <v>301.42990440786861</v>
+        <v>301.42990440787065</v>
       </c>
       <c r="R14" s="24">
         <f t="shared" si="0"/>
-        <v>12359.257732363516</v>
+        <v>12359.257732363518</v>
       </c>
       <c r="S14" s="24">
         <f t="shared" si="9"/>
-        <v>703.09115399441453</v>
+        <v>703.09115399441464</v>
       </c>
       <c r="T14" s="24">
         <f t="shared" si="10"/>
@@ -3980,11 +4007,11 @@
       </c>
       <c r="U14" s="24">
         <f t="shared" si="11"/>
-        <v>62.019321537808878</v>
+        <v>62.019321537808992</v>
       </c>
       <c r="V14" s="24">
         <f>$R$6*'Policyholder cash flows'!F11</f>
-        <v>62.019321537809645</v>
+        <v>62.019321537810065</v>
       </c>
       <c r="Y14" s="23">
         <f>'Policyholder cash flows'!G11</f>
@@ -4032,7 +4059,7 @@
       <c r="D15" s="8">
         <v>0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="91">
         <f t="shared" si="16"/>
         <v>54.121608000000002</v>
       </c>
@@ -4073,15 +4100,15 @@
       </c>
       <c r="Q15" s="23">
         <f>'Policyholder cash flows'!H13*$R$6</f>
-        <v>254.39541105764056</v>
+        <v>254.39541105764229</v>
       </c>
       <c r="R15" s="24">
         <f t="shared" si="0"/>
-        <v>12978.324004210626</v>
+        <v>12978.324004210628</v>
       </c>
       <c r="S15" s="24">
         <f t="shared" si="9"/>
-        <v>738.30816746181097</v>
+        <v>738.30816746181108</v>
       </c>
       <c r="T15" s="24">
         <f t="shared" si="10"/>
@@ -4089,11 +4116,11 @@
       </c>
       <c r="U15" s="24">
         <f t="shared" si="11"/>
-        <v>65.120287614700601</v>
+        <v>65.120287614700715</v>
       </c>
       <c r="V15" s="24">
         <f>$R$6*'Policyholder cash flows'!F12</f>
-        <v>65.120287614700132</v>
+        <v>65.120287614700572</v>
       </c>
       <c r="Y15" s="23">
         <f>'Policyholder cash flows'!G12</f>
@@ -4141,7 +4168,7 @@
       <c r="D16" s="8">
         <v>0</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="91">
         <f t="shared" si="16"/>
         <v>55.204040159999998</v>
       </c>
@@ -4182,15 +4209,15 @@
       </c>
       <c r="Q16" s="23">
         <f>'Policyholder cash flows'!H14*$R$6</f>
-        <v>201.28283372566392</v>
+        <v>201.28283372566528</v>
       </c>
       <c r="R16" s="24">
         <f t="shared" si="0"/>
-        <v>13630.13085989823</v>
+        <v>13630.130859898232</v>
       </c>
       <c r="S16" s="24">
         <f t="shared" si="9"/>
-        <v>775.38719784303748</v>
+        <v>775.3871978430376</v>
       </c>
       <c r="T16" s="24">
         <f t="shared" si="10"/>
@@ -4198,11 +4225,11 @@
       </c>
       <c r="U16" s="24">
         <f t="shared" si="11"/>
-        <v>68.376301995433323</v>
+        <v>68.376301995433437</v>
       </c>
       <c r="V16" s="24">
         <f>$R$6*'Policyholder cash flows'!F13</f>
-        <v>68.376301995435142</v>
+        <v>68.376301995435597</v>
       </c>
       <c r="Y16" s="23">
         <f>'Policyholder cash flows'!G13</f>
@@ -4250,7 +4277,7 @@
       <c r="D17" s="8">
         <v>0</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="91">
         <f t="shared" si="16"/>
         <v>56.308120963200004</v>
       </c>
@@ -4291,7 +4318,7 @@
       </c>
       <c r="Q17" s="23">
         <f>'Policyholder cash flows'!H15*$R$6</f>
-        <v>141.56468665399686</v>
+        <v>141.56468665399782</v>
       </c>
       <c r="R17" s="24">
         <f t="shared" si="0"/>
@@ -4299,19 +4326,19 @@
       </c>
       <c r="S17" s="24">
         <f t="shared" si="9"/>
-        <v>814.4293643361018</v>
+        <v>814.42936433610191</v>
       </c>
       <c r="T17" s="24">
         <f t="shared" si="10"/>
-        <v>686.32612627769959</v>
+        <v>686.32612627769777</v>
       </c>
       <c r="U17" s="24">
         <f t="shared" si="11"/>
-        <v>71.795117095202158</v>
+        <v>71.795117095204091</v>
       </c>
       <c r="V17" s="24">
         <f>$R$6*'Policyholder cash flows'!F14</f>
-        <v>71.795117095206905</v>
+        <v>71.795117095207388</v>
       </c>
       <c r="Y17" s="23">
         <f>'Policyholder cash flows'!G14</f>
@@ -4359,7 +4386,7 @@
       <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="91">
         <f t="shared" si="16"/>
         <v>57.434283382463988</v>
       </c>
@@ -4400,7 +4427,7 @@
       </c>
       <c r="Q18" s="23">
         <f>'Policyholder cash flows'!H16*$R$6</f>
-        <v>74.673694903269435</v>
+        <v>74.673694903269947</v>
       </c>
       <c r="R18" s="24">
         <f t="shared" si="0"/>
@@ -4420,7 +4447,7 @@
       </c>
       <c r="V18" s="24">
         <f>$R$6*'Policyholder cash flows'!F15</f>
-        <v>75.384872949967246</v>
+        <v>75.384872949967757</v>
       </c>
       <c r="Y18" s="23">
         <f>'Policyholder cash flows'!G15</f>
@@ -4468,7 +4495,7 @@
       <c r="D19" s="8">
         <v>0</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="91">
         <f t="shared" si="16"/>
         <v>58.582969050113277</v>
       </c>
@@ -4530,7 +4557,7 @@
       </c>
       <c r="V19" s="24">
         <f>$R$6*'Policyholder cash flows'!F16</f>
-        <v>79.154116597465602</v>
+        <v>79.154116597466142</v>
       </c>
       <c r="Y19" s="23"/>
       <c r="Z19" s="23">
@@ -4545,7 +4572,7 @@
         <f t="shared" si="13"/>
         <v>88.380889756794204</v>
       </c>
-      <c r="AC19"/>
+      <c r="AC19" s="26"/>
       <c r="AE19" s="23"/>
       <c r="AF19" s="23">
         <f t="shared" si="14"/>
@@ -4579,41 +4606,41 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21" s="84" t="s">
+      <c r="I21" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="85" t="s">
+      <c r="J21" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
       <c r="O21"/>
-      <c r="P21" s="85" t="s">
+      <c r="P21" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="Y21" s="85" t="s">
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="Y21" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="85"/>
-      <c r="AE21" s="85" t="s">
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AE21" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="85"/>
-      <c r="AH21" s="85"/>
-      <c r="AI21" s="85"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="68"/>
     </row>
     <row r="22" spans="2:35" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B22"/>
@@ -4621,77 +4648,79 @@
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
-      <c r="G22"/>
+      <c r="G22" s="93" t="s">
+        <v>123</v>
+      </c>
       <c r="H22"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="86" t="s">
+      <c r="I22" s="67"/>
+      <c r="J22" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="86" t="s">
+      <c r="K22" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="86" t="s">
+      <c r="L22" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="86" t="s">
+      <c r="M22" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="86" t="s">
+      <c r="N22" s="62" t="s">
         <v>116</v>
       </c>
       <c r="O22"/>
-      <c r="P22" s="86" t="s">
+      <c r="P22" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="Q22" s="86" t="s">
+      <c r="Q22" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="R22" s="86" t="s">
+      <c r="R22" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="S22" s="86" t="s">
+      <c r="S22" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="T22" s="86" t="s">
+      <c r="T22" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="U22" s="86" t="s">
+      <c r="U22" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="V22" s="86" t="s">
+      <c r="V22" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="W22" s="86" t="s">
+      <c r="W22" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="Y22" s="86" t="s">
+      <c r="Y22" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="Z22" s="86" t="s">
+      <c r="Z22" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AA22" s="86" t="s">
+      <c r="AA22" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AB22" s="86" t="s">
+      <c r="AB22" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="AC22" s="86" t="s">
+      <c r="AC22" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="AE22" s="86" t="s">
+      <c r="AE22" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AF22" s="86" t="s">
+      <c r="AF22" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AG22" s="86" t="s">
+      <c r="AG22" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AH22" s="86" t="s">
+      <c r="AH22" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="AI22" s="86" t="s">
+      <c r="AI22" s="62" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4727,53 +4756,53 @@
         <v>461.42417707466387</v>
       </c>
       <c r="O23"/>
-      <c r="P23" s="87">
+      <c r="P23" s="63">
         <f>'Shareholder cash flows'!J23</f>
         <v>-461.42417707466848</v>
       </c>
-      <c r="Q23" s="87">
-        <f>Q9</f>
-        <v>461.42417707466535</v>
-      </c>
-      <c r="R23" s="88">
+      <c r="Q23" s="63">
+        <f>-P23</f>
+        <v>461.42417707466848</v>
+      </c>
+      <c r="R23" s="64">
         <f t="shared" ref="R23:R33" si="18">P23+Q23</f>
-        <v>-3.1263880373444408E-12</v>
-      </c>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88">
+        <v>0</v>
+      </c>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64">
         <f>R23</f>
-        <v>-3.1263880373444408E-12</v>
-      </c>
-      <c r="U23" s="89">
+        <v>0</v>
+      </c>
+      <c r="U23" s="65">
         <f>-T23</f>
-        <v>3.1263880373444408E-12</v>
-      </c>
-      <c r="V23" s="88">
-        <v>0</v>
-      </c>
-      <c r="W23" s="90">
+        <v>0</v>
+      </c>
+      <c r="V23" s="64">
+        <v>0</v>
+      </c>
+      <c r="W23" s="66">
         <f>NPV(Discount_rate,'Shareholder cash flows'!V24:V33)+V23</f>
-        <v>461.42417707466535</v>
-      </c>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="90">
+        <v>461.42417707466848</v>
+      </c>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="66">
         <f>NPV(Discount_rate,AB24:AB34)+AB23</f>
         <v>461.42417707466421</v>
       </c>
-      <c r="AE23" s="87">
+      <c r="AE23" s="63">
         <f>Y23*101%</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="88">
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="64">
         <f>AE23</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="90">
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="66">
         <f>NPV(Discount_rate,AH24:AH34)+AH23</f>
         <v>461.42417707466376</v>
       </c>
@@ -4797,7 +4826,7 @@
         <v>9739.8903723008498</v>
       </c>
       <c r="K24" s="8">
-        <f>(J23+C10-D10-E10)*Investment_rate</f>
+        <f t="shared" ref="K24:K33" si="19">(J23+C10-D10-E10)*Investment_rate</f>
         <v>551.31454937551985</v>
       </c>
       <c r="L24" s="8">
@@ -4805,10 +4834,10 @@
         <v>10201.314549375518</v>
       </c>
       <c r="M24" s="8">
-        <f>G10+K24-L24</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="83">
+        <f t="shared" ref="M24:M33" si="20">G10+K24-L24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="61">
         <f>M23*(1+Investment_rate)+M24</f>
         <v>489.10962769914863</v>
       </c>
@@ -4818,35 +4847,35 @@
         <v>9739.8903723008498</v>
       </c>
       <c r="Q24" s="23">
-        <f t="shared" ref="Q24:Q33" si="19">Q10</f>
-        <v>438.08617838507587</v>
+        <f>'Policyholder cash flows'!H8*$R$6</f>
+        <v>438.08617838507882</v>
       </c>
       <c r="R24" s="24">
         <f t="shared" si="18"/>
-        <v>10177.976550685926</v>
+        <v>10177.976550685929</v>
       </c>
       <c r="S24" s="24">
-        <f>(R23+C10-E10-D10)*Investment_rate</f>
-        <v>578.99999999999977</v>
+        <f t="shared" ref="S24:S33" si="21">(R23+C10-E10-D10)*Investment_rate</f>
+        <v>579</v>
       </c>
       <c r="T24" s="24">
         <f>R24-R23</f>
         <v>10177.976550685929</v>
       </c>
       <c r="U24" s="8">
-        <f>G10+S24-T24</f>
+        <f t="shared" ref="U24:U33" si="22">G10+S24-T24</f>
         <v>51.023449314070604</v>
       </c>
       <c r="V24" s="24">
         <f>V10</f>
-        <v>51.023449314069452</v>
+        <v>51.023449314069801</v>
       </c>
       <c r="Y24" s="23">
-        <f t="shared" ref="Y24:Y32" si="20">Y10</f>
+        <f t="shared" ref="Y24:Y32" si="23">Y10</f>
         <v>10185</v>
       </c>
       <c r="Z24" s="23">
-        <f>(Y23+C10-D10-E10)*Investment_rate</f>
+        <f t="shared" ref="Z24:Z33" si="24">(Y23+C10-D10-E10)*Investment_rate</f>
         <v>579</v>
       </c>
       <c r="AA24" s="24">
@@ -4854,30 +4883,30 @@
         <v>10185</v>
       </c>
       <c r="AB24" s="24">
-        <f>G10+Z24-AA24</f>
+        <f t="shared" ref="AB24:AB33" si="25">G10+Z24-AA24</f>
         <v>44</v>
       </c>
-      <c r="AC24" s="83">
+      <c r="AC24" s="61">
         <f>AB23*(1+Investment_rate)+AB24</f>
         <v>44</v>
       </c>
       <c r="AE24" s="23">
-        <f t="shared" ref="AE24:AE32" si="21">Y24*101%</f>
+        <f t="shared" ref="AE24:AE32" si="26">Y24*101%</f>
         <v>10286.85</v>
       </c>
       <c r="AF24" s="23">
-        <f>(AE23+C10-D10-E10)*Investment_rate</f>
+        <f t="shared" ref="AF24:AF33" si="27">(AE23+C10-D10-E10)*Investment_rate</f>
         <v>579</v>
       </c>
       <c r="AG24" s="24">
-        <f t="shared" ref="AG24:AG33" si="22">AE24-AE23</f>
+        <f t="shared" ref="AG24:AG33" si="28">AE24-AE23</f>
         <v>10286.85</v>
       </c>
       <c r="AH24" s="24">
-        <f>G10+AF24-AG24</f>
+        <f t="shared" ref="AH24:AH33" si="29">G10+AF24-AG24</f>
         <v>-57.850000000000364</v>
       </c>
-      <c r="AI24" s="83">
+      <c r="AI24" s="61">
         <f>AH23*(1+Investment_rate)+AH24</f>
         <v>-57.850000000000364</v>
       </c>
@@ -4891,7 +4920,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" s="5">
-        <f t="shared" ref="I25:I33" si="23">1+I24</f>
+        <f t="shared" ref="I25:I33" si="30">1+I24</f>
         <v>2</v>
       </c>
       <c r="J25" s="8">
@@ -4902,15 +4931,15 @@
         <v>10271.283794638901</v>
       </c>
       <c r="K25" s="8">
-        <f>(J24+C11-D11-E11)*Investment_rate</f>
+        <f t="shared" si="19"/>
         <v>581.39342233805098</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" ref="L25:L33" si="24">J25-J24</f>
+        <f t="shared" ref="L25:L33" si="31">J25-J24</f>
         <v>531.3934223380511</v>
       </c>
       <c r="M25" s="8">
-        <f>G11+K25-L25</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O25"/>
@@ -4919,60 +4948,60 @@
         <v>10271.283794638901</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" si="19"/>
-        <v>410.79672730840747</v>
+        <f>'Policyholder cash flows'!H9*$R$6</f>
+        <v>410.79672730841025</v>
       </c>
       <c r="R25" s="24">
         <f t="shared" si="18"/>
-        <v>10682.080521947308</v>
+        <v>10682.080521947311</v>
       </c>
       <c r="S25" s="24">
-        <f>(R24+C11-E11-D11)*Investment_rate</f>
-        <v>607.67859304115552</v>
+        <f t="shared" si="21"/>
+        <v>607.67859304115575</v>
       </c>
       <c r="T25" s="24">
-        <f t="shared" ref="T25:T33" si="25">R25-R24</f>
+        <f t="shared" ref="T25:T33" si="32">R25-R24</f>
         <v>504.10397126138196</v>
       </c>
       <c r="U25" s="8">
-        <f>G11+S25-T25</f>
-        <v>53.574621779773565</v>
+        <f t="shared" si="22"/>
+        <v>53.574621779773793</v>
       </c>
       <c r="V25" s="24">
-        <f t="shared" ref="V25:V33" si="26">V11</f>
-        <v>53.574621779772933</v>
+        <f t="shared" ref="V25:V33" si="33">V11</f>
+        <v>53.574621779773295</v>
       </c>
       <c r="Y25" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10694.25</v>
       </c>
       <c r="Z25" s="23">
-        <f>(Y24+C11-D11-E11)*Investment_rate</f>
+        <f t="shared" si="24"/>
         <v>608.1</v>
       </c>
       <c r="AA25" s="24">
-        <f t="shared" ref="AA25:AA33" si="27">Y25-Y24</f>
+        <f t="shared" ref="AA25:AA33" si="34">Y25-Y24</f>
         <v>509.25</v>
       </c>
       <c r="AB25" s="24">
-        <f>G11+Z25-AA25</f>
+        <f t="shared" si="25"/>
         <v>48.850000000000023</v>
       </c>
       <c r="AC25"/>
       <c r="AE25" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>10801.192499999999</v>
       </c>
       <c r="AF25" s="23">
-        <f>(AE24+C11-D11-E11)*Investment_rate</f>
+        <f t="shared" si="27"/>
         <v>614.21100000000001</v>
       </c>
       <c r="AG25" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>514.34249999999884</v>
       </c>
       <c r="AH25" s="24">
-        <f>G11+AF25-AG25</f>
+        <f t="shared" si="29"/>
         <v>49.868500000001177</v>
       </c>
       <c r="AI25"/>
@@ -4986,7 +5015,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="J26" s="8">
@@ -4997,15 +5026,15 @@
         <v>10833.500822317237</v>
       </c>
       <c r="K26" s="8">
-        <f>(J25+C12-D12-E12)*Investment_rate</f>
+        <f t="shared" si="19"/>
         <v>613.21702767833403</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>562.21702767833631</v>
       </c>
       <c r="M26" s="8">
-        <f>G12+K26-L26</f>
+        <f t="shared" si="20"/>
         <v>-2.2737367544323206E-12</v>
       </c>
       <c r="O26"/>
@@ -5014,60 +5043,60 @@
         <v>10833.500822317237</v>
       </c>
       <c r="Q26" s="23">
-        <f t="shared" si="19"/>
-        <v>379.19117807815041</v>
+        <f>'Policyholder cash flows'!H10*$R$6</f>
+        <v>379.19117807815297</v>
       </c>
       <c r="R26" s="24">
         <f t="shared" si="18"/>
-        <v>11212.692000395387</v>
+        <v>11212.692000395391</v>
       </c>
       <c r="S26" s="24">
-        <f>(R25+C12-E12-D12)*Investment_rate</f>
-        <v>637.86483131683849</v>
+        <f t="shared" si="21"/>
+        <v>637.8648313168386</v>
       </c>
       <c r="T26" s="24">
+        <f t="shared" si="32"/>
+        <v>530.61147844807965</v>
+      </c>
+      <c r="U26" s="8">
+        <f t="shared" si="22"/>
+        <v>56.253352868758952</v>
+      </c>
+      <c r="V26" s="24">
+        <f t="shared" si="33"/>
+        <v>56.253352868761951</v>
+      </c>
+      <c r="Y26" s="23">
+        <f t="shared" si="23"/>
+        <v>11228.962500000001</v>
+      </c>
+      <c r="Z26" s="23">
+        <f t="shared" si="24"/>
+        <v>638.59500000000003</v>
+      </c>
+      <c r="AA26" s="24">
+        <f t="shared" si="34"/>
+        <v>534.71250000000146</v>
+      </c>
+      <c r="AB26" s="24">
         <f t="shared" si="25"/>
-        <v>530.61147844807965</v>
-      </c>
-      <c r="U26" s="8">
-        <f>G12+S26-T26</f>
-        <v>56.253352868758839</v>
-      </c>
-      <c r="V26" s="24">
-        <f t="shared" si="26"/>
-        <v>56.253352868761567</v>
-      </c>
-      <c r="Y26" s="23">
-        <f t="shared" si="20"/>
-        <v>11228.962500000001</v>
-      </c>
-      <c r="Z26" s="23">
-        <f>(Y25+C12-D12-E12)*Investment_rate</f>
-        <v>638.59500000000003</v>
-      </c>
-      <c r="AA26" s="24">
-        <f t="shared" si="27"/>
-        <v>534.71250000000146</v>
-      </c>
-      <c r="AB26" s="24">
-        <f>G12+Z26-AA26</f>
         <v>52.882499999998572</v>
       </c>
       <c r="AC26"/>
       <c r="AE26" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>11341.252125000001</v>
       </c>
       <c r="AF26" s="23">
-        <f>(AE25+C12-D12-E12)*Investment_rate</f>
+        <f t="shared" si="27"/>
         <v>645.01154999999994</v>
       </c>
       <c r="AG26" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>540.05962500000169</v>
       </c>
       <c r="AH26" s="24">
-        <f>G12+AF26-AG26</f>
+        <f t="shared" si="29"/>
         <v>53.951924999998255</v>
       </c>
       <c r="AI26"/>
@@ -5081,7 +5110,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="J27" s="8">
@@ -5092,15 +5121,15 @@
         <v>11428.36967165627</v>
       </c>
       <c r="K27" s="8">
-        <f>(J26+C13-D13-E13)*Investment_rate</f>
+        <f t="shared" si="19"/>
         <v>646.88884933903421</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>594.86884933903275</v>
       </c>
       <c r="M27" s="8">
-        <f>G13+K27-L27</f>
+        <f t="shared" si="20"/>
         <v>1.4779288903810084E-12</v>
       </c>
       <c r="O27"/>
@@ -5109,60 +5138,60 @@
         <v>11428.36967165627</v>
       </c>
       <c r="Q27" s="23">
-        <f t="shared" si="19"/>
-        <v>342.87662825063978</v>
+        <f>'Policyholder cash flows'!H11*$R$6</f>
+        <v>342.87662825064211</v>
       </c>
       <c r="R27" s="24">
         <f t="shared" si="18"/>
-        <v>11771.24629990691</v>
+        <v>11771.246299906912</v>
       </c>
       <c r="S27" s="24">
-        <f>(R26+C13-E13-D13)*Investment_rate</f>
-        <v>669.64032002372323</v>
+        <f t="shared" si="21"/>
+        <v>669.64032002372346</v>
       </c>
       <c r="T27" s="24">
+        <f t="shared" si="32"/>
+        <v>558.55429951152109</v>
+      </c>
+      <c r="U27" s="8">
+        <f t="shared" si="22"/>
+        <v>59.066020512202385</v>
+      </c>
+      <c r="V27" s="24">
+        <f t="shared" si="33"/>
+        <v>59.066020512200062</v>
+      </c>
+      <c r="Y27" s="23">
+        <f t="shared" si="23"/>
+        <v>11790.410625000002</v>
+      </c>
+      <c r="Z27" s="23">
+        <f t="shared" si="24"/>
+        <v>670.61655000000007</v>
+      </c>
+      <c r="AA27" s="24">
+        <f t="shared" si="34"/>
+        <v>561.4481250000008</v>
+      </c>
+      <c r="AB27" s="24">
         <f t="shared" si="25"/>
-        <v>558.55429951152291</v>
-      </c>
-      <c r="U27" s="8">
-        <f>G13+S27-T27</f>
-        <v>59.066020512200339</v>
-      </c>
-      <c r="V27" s="24">
-        <f t="shared" si="26"/>
-        <v>59.066020512199657</v>
-      </c>
-      <c r="Y27" s="23">
-        <f t="shared" si="20"/>
-        <v>11790.410625000002</v>
-      </c>
-      <c r="Z27" s="23">
-        <f>(Y26+C13-D13-E13)*Investment_rate</f>
-        <v>670.61655000000007</v>
-      </c>
-      <c r="AA27" s="24">
-        <f t="shared" si="27"/>
-        <v>561.4481250000008</v>
-      </c>
-      <c r="AB27" s="24">
-        <f>G13+Z27-AA27</f>
         <v>57.148424999999293</v>
       </c>
       <c r="AC27"/>
       <c r="AE27" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>11908.314731250002</v>
       </c>
       <c r="AF27" s="23">
-        <f>(AE26+C13-D13-E13)*Investment_rate</f>
+        <f t="shared" si="27"/>
         <v>677.35392750000005</v>
       </c>
       <c r="AG27" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>567.06260625000141</v>
       </c>
       <c r="AH27" s="24">
-        <f>G13+AF27-AG27</f>
+        <f t="shared" si="29"/>
         <v>58.271321249998664</v>
       </c>
       <c r="AI27"/>
@@ -5176,7 +5205,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J28" s="8">
@@ -5187,15 +5216,15 @@
         <v>12057.827827955647</v>
       </c>
       <c r="K28" s="8">
-        <f>(J27+C14-D14-E14)*Investment_rate</f>
+        <f t="shared" si="19"/>
         <v>682.5185562993762</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>629.45815629937715</v>
       </c>
       <c r="M28" s="8">
-        <f>G14+K28-L28</f>
+        <f t="shared" si="20"/>
         <v>-9.0949470177292824E-13</v>
       </c>
       <c r="O28"/>
@@ -5204,60 +5233,60 @@
         <v>12057.827827955647</v>
       </c>
       <c r="Q28" s="23">
-        <f t="shared" si="19"/>
-        <v>301.42990440786861</v>
+        <f>'Policyholder cash flows'!H12*$R$6</f>
+        <v>301.42990440787065</v>
       </c>
       <c r="R28" s="24">
         <f t="shared" si="18"/>
-        <v>12359.257732363516</v>
+        <v>12359.257732363518</v>
       </c>
       <c r="S28" s="24">
-        <f>(R27+C14-E14-D14)*Investment_rate</f>
-        <v>703.09115399441453</v>
+        <f t="shared" si="21"/>
+        <v>703.09115399441464</v>
       </c>
       <c r="T28" s="24">
+        <f t="shared" si="32"/>
+        <v>588.01143245660569</v>
+      </c>
+      <c r="U28" s="8">
+        <f t="shared" si="22"/>
+        <v>62.019321537808992</v>
+      </c>
+      <c r="V28" s="24">
+        <f t="shared" si="33"/>
+        <v>62.019321537810065</v>
+      </c>
+      <c r="Y28" s="23">
+        <f t="shared" si="23"/>
+        <v>12379.931156250002</v>
+      </c>
+      <c r="Z28" s="23">
+        <f t="shared" si="24"/>
+        <v>704.24101350000012</v>
+      </c>
+      <c r="AA28" s="24">
+        <f t="shared" si="34"/>
+        <v>589.5205312500002</v>
+      </c>
+      <c r="AB28" s="24">
         <f t="shared" si="25"/>
-        <v>588.01143245660569</v>
-      </c>
-      <c r="U28" s="8">
-        <f>G14+S28-T28</f>
-        <v>62.019321537808878</v>
-      </c>
-      <c r="V28" s="24">
-        <f t="shared" si="26"/>
-        <v>62.019321537809645</v>
-      </c>
-      <c r="Y28" s="23">
-        <f t="shared" si="20"/>
-        <v>12379.931156250002</v>
-      </c>
-      <c r="Z28" s="23">
-        <f>(Y27+C14-D14-E14)*Investment_rate</f>
-        <v>704.24101350000012</v>
-      </c>
-      <c r="AA28" s="24">
-        <f t="shared" si="27"/>
-        <v>589.5205312500002</v>
-      </c>
-      <c r="AB28" s="24">
-        <f>G14+Z28-AA28</f>
         <v>61.660082249999959</v>
       </c>
       <c r="AC28"/>
       <c r="AE28" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>12503.730467812502</v>
       </c>
       <c r="AF28" s="23">
-        <f>(AE27+C14-D14-E14)*Investment_rate</f>
+        <f t="shared" si="27"/>
         <v>711.31525987500004</v>
       </c>
       <c r="AG28" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>595.41573656249966</v>
       </c>
       <c r="AH28" s="24">
-        <f>G14+AF28-AG28</f>
+        <f t="shared" si="29"/>
         <v>62.839123312500419</v>
       </c>
       <c r="AI28"/>
@@ -5271,7 +5300,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="J29" s="8">
@@ -5282,15 +5311,15 @@
         <v>12723.928593152987</v>
       </c>
       <c r="K29" s="8">
-        <f>(J28+C15-D15-E15)*Investment_rate</f>
+        <f t="shared" si="19"/>
         <v>720.22237319733881</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>666.10076519733957</v>
       </c>
       <c r="M29" s="8">
-        <f>G15+K29-L29</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O29"/>
@@ -5299,60 +5328,60 @@
         <v>12723.928593152987</v>
       </c>
       <c r="Q29" s="23">
-        <f t="shared" si="19"/>
-        <v>254.39541105764056</v>
+        <f>'Policyholder cash flows'!H13*$R$6</f>
+        <v>254.39541105764229</v>
       </c>
       <c r="R29" s="24">
         <f t="shared" si="18"/>
-        <v>12978.324004210626</v>
+        <v>12978.324004210628</v>
       </c>
       <c r="S29" s="24">
-        <f>(R28+C15-E15-D15)*Investment_rate</f>
-        <v>738.30816746181097</v>
+        <f t="shared" si="21"/>
+        <v>738.30816746181108</v>
       </c>
       <c r="T29" s="24">
+        <f t="shared" si="32"/>
+        <v>619.06627184711033</v>
+      </c>
+      <c r="U29" s="8">
+        <f t="shared" si="22"/>
+        <v>65.120287614700715</v>
+      </c>
+      <c r="V29" s="24">
+        <f t="shared" si="33"/>
+        <v>65.120287614700572</v>
+      </c>
+      <c r="Y29" s="23">
+        <f t="shared" si="23"/>
+        <v>12998.927714062504</v>
+      </c>
+      <c r="Z29" s="23">
+        <f t="shared" si="24"/>
+        <v>739.54857289500012</v>
+      </c>
+      <c r="AA29" s="24">
+        <f>Y29-Y28</f>
+        <v>618.99655781250112</v>
+      </c>
+      <c r="AB29" s="24">
         <f t="shared" si="25"/>
-        <v>619.06627184711033</v>
-      </c>
-      <c r="U29" s="8">
-        <f>G15+S29-T29</f>
-        <v>65.120287614700601</v>
-      </c>
-      <c r="V29" s="24">
-        <f t="shared" si="26"/>
-        <v>65.120287614700132</v>
-      </c>
-      <c r="Y29" s="23">
-        <f t="shared" si="20"/>
-        <v>12998.927714062504</v>
-      </c>
-      <c r="Z29" s="23">
-        <f>(Y28+C15-D15-E15)*Investment_rate</f>
-        <v>739.54857289500012</v>
-      </c>
-      <c r="AA29" s="24">
-        <f t="shared" si="27"/>
-        <v>618.99655781250112</v>
-      </c>
-      <c r="AB29" s="24">
-        <f>G15+Z29-AA29</f>
         <v>66.430407082498959</v>
       </c>
       <c r="AC29"/>
       <c r="AE29" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>13128.916991203128</v>
       </c>
       <c r="AF29" s="23">
-        <f>(AE28+C15-D15-E15)*Investment_rate</f>
+        <f t="shared" si="27"/>
         <v>746.97653158875016</v>
       </c>
       <c r="AG29" s="24">
-        <f t="shared" si="22"/>
+        <f>AE29-AE28</f>
         <v>625.18652339062646</v>
       </c>
       <c r="AH29" s="24">
-        <f>G15+AF29-AG29</f>
+        <f t="shared" si="29"/>
         <v>67.668400198123663</v>
       </c>
       <c r="AI29"/>
@@ -5366,7 +5395,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="J30" s="8">
@@ -5377,15 +5406,15 @@
         <v>13428.848026172567</v>
       </c>
       <c r="K30" s="8">
-        <f>(J29+C16-D16-E16)*Investment_rate</f>
+        <f t="shared" si="19"/>
         <v>760.12347317957915</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>704.91943301958054</v>
       </c>
       <c r="M30" s="8">
-        <f>G16+K30-L30</f>
+        <f t="shared" si="20"/>
         <v>-1.3642420526593924E-12</v>
       </c>
       <c r="O30"/>
@@ -5394,60 +5423,60 @@
         <v>13428.848026172567</v>
       </c>
       <c r="Q30" s="23">
-        <f t="shared" si="19"/>
-        <v>201.28283372566392</v>
+        <f>'Policyholder cash flows'!H14*$R$6</f>
+        <v>201.28283372566528</v>
       </c>
       <c r="R30" s="24">
         <f t="shared" si="18"/>
-        <v>13630.13085989823</v>
+        <v>13630.130859898232</v>
       </c>
       <c r="S30" s="24">
-        <f>(R29+C16-E16-D16)*Investment_rate</f>
-        <v>775.38719784303748</v>
+        <f t="shared" si="21"/>
+        <v>775.3871978430376</v>
       </c>
       <c r="T30" s="24">
+        <f t="shared" si="32"/>
+        <v>651.80685568760418</v>
+      </c>
+      <c r="U30" s="8">
+        <f t="shared" si="22"/>
+        <v>68.376301995433437</v>
+      </c>
+      <c r="V30" s="24">
+        <f t="shared" si="33"/>
+        <v>68.376301995435597</v>
+      </c>
+      <c r="Y30" s="23">
+        <f t="shared" si="23"/>
+        <v>13648.87409976563</v>
+      </c>
+      <c r="Z30" s="23">
+        <f t="shared" si="24"/>
+        <v>776.62342043415015</v>
+      </c>
+      <c r="AA30" s="24">
+        <f t="shared" si="34"/>
+        <v>649.946385703126</v>
+      </c>
+      <c r="AB30" s="24">
         <f t="shared" si="25"/>
-        <v>651.80685568760418</v>
-      </c>
-      <c r="U30" s="8">
-        <f>G16+S30-T30</f>
-        <v>68.376301995433323</v>
-      </c>
-      <c r="V30" s="24">
-        <f t="shared" si="26"/>
-        <v>68.376301995435142</v>
-      </c>
-      <c r="Y30" s="23">
-        <f t="shared" si="20"/>
-        <v>13648.87409976563</v>
-      </c>
-      <c r="Z30" s="23">
-        <f>(Y29+C16-D16-E16)*Investment_rate</f>
-        <v>776.62342043415015</v>
-      </c>
-      <c r="AA30" s="24">
-        <f t="shared" si="27"/>
-        <v>649.946385703126</v>
-      </c>
-      <c r="AB30" s="24">
-        <f>G16+Z30-AA30</f>
         <v>71.472994571024174</v>
       </c>
       <c r="AC30"/>
       <c r="AE30" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>13785.362840763286</v>
       </c>
       <c r="AF30" s="23">
-        <f>(AE29+C16-D16-E16)*Investment_rate</f>
+        <f t="shared" si="27"/>
         <v>784.42277706258767</v>
       </c>
       <c r="AG30" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>656.44584956015751</v>
       </c>
       <c r="AH30" s="24">
-        <f>G16+AF30-AG30</f>
+        <f t="shared" si="29"/>
         <v>72.772887342430181</v>
       </c>
       <c r="AI30"/>
@@ -5461,7 +5490,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="J31" s="8">
@@ -5472,15 +5501,15 @@
         <v>14174.892299521933</v>
       </c>
       <c r="K31" s="8">
-        <f>(J30+C17-D17-E17)*Investment_rate</f>
+        <f t="shared" si="19"/>
         <v>802.35239431256196</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>746.04427334936554</v>
       </c>
       <c r="M31" s="8">
-        <f>G17+K31-L31</f>
+        <f t="shared" si="20"/>
         <v>-3.637978807091713E-12</v>
       </c>
       <c r="O31"/>
@@ -5489,60 +5518,60 @@
         <v>14174.892299521933</v>
       </c>
       <c r="Q31" s="23">
-        <f t="shared" si="19"/>
-        <v>141.56468665399686</v>
+        <f>'Policyholder cash flows'!H15*$R$6</f>
+        <v>141.56468665399782</v>
       </c>
       <c r="R31" s="24">
         <f t="shared" si="18"/>
         <v>14316.45698617593</v>
       </c>
       <c r="S31" s="24">
-        <f>(R30+C17-E17-D17)*Investment_rate</f>
-        <v>814.4293643361018</v>
+        <f t="shared" si="21"/>
+        <v>814.42936433610191</v>
       </c>
       <c r="T31" s="24">
+        <f t="shared" si="32"/>
+        <v>686.32612627769777</v>
+      </c>
+      <c r="U31" s="8">
+        <f t="shared" si="22"/>
+        <v>71.795117095204091</v>
+      </c>
+      <c r="V31" s="24">
+        <f t="shared" si="33"/>
+        <v>71.795117095207388</v>
+      </c>
+      <c r="Y31" s="23">
+        <f t="shared" si="23"/>
+        <v>14331.317804753911</v>
+      </c>
+      <c r="Z31" s="23">
+        <f t="shared" si="24"/>
+        <v>815.55395872814574</v>
+      </c>
+      <c r="AA31" s="24">
+        <f t="shared" si="34"/>
+        <v>682.44370498828175</v>
+      </c>
+      <c r="AB31" s="24">
         <f t="shared" si="25"/>
-        <v>686.32612627769959</v>
-      </c>
-      <c r="U31" s="8">
-        <f>G17+S31-T31</f>
-        <v>71.795117095202158</v>
-      </c>
-      <c r="V31" s="24">
-        <f t="shared" si="26"/>
-        <v>71.795117095206905</v>
-      </c>
-      <c r="Y31" s="23">
-        <f t="shared" si="20"/>
-        <v>14331.317804753911</v>
-      </c>
-      <c r="Z31" s="23">
-        <f>(Y30+C17-D17-E17)*Investment_rate</f>
-        <v>815.55395872814574</v>
-      </c>
-      <c r="AA31" s="24">
-        <f t="shared" si="27"/>
-        <v>682.44370498828175</v>
-      </c>
-      <c r="AB31" s="24">
-        <f>G17+Z31-AA31</f>
         <v>76.802132776663939</v>
       </c>
       <c r="AC31"/>
       <c r="AE31" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>14474.630982801451</v>
       </c>
       <c r="AF31" s="23">
-        <f>(AE30+C17-D17-E17)*Investment_rate</f>
+        <f t="shared" si="27"/>
         <v>823.74328318800508</v>
       </c>
       <c r="AG31" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>689.26814203816502</v>
       </c>
       <c r="AH31" s="24">
-        <f>G17+AF31-AG31</f>
+        <f t="shared" si="29"/>
         <v>78.167020186640002</v>
       </c>
       <c r="AI31"/>
@@ -5556,7 +5585,7 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="J32" s="8">
@@ -5567,15 +5596,15 @@
         <v>14964.505497107837</v>
       </c>
       <c r="K32" s="8">
-        <f>(J31+C18-D18-E18)*Investment_rate</f>
+        <f t="shared" si="19"/>
         <v>847.04748096836806</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>789.61319758590435</v>
       </c>
       <c r="M32" s="8">
-        <f>G18+K32-L32</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O32"/>
@@ -5584,60 +5613,60 @@
         <v>14964.505497107837</v>
       </c>
       <c r="Q32" s="23">
-        <f t="shared" si="19"/>
-        <v>74.673694903269435</v>
+        <f>'Policyholder cash flows'!H16*$R$6</f>
+        <v>74.673694903269947</v>
       </c>
       <c r="R32" s="24">
         <f t="shared" si="18"/>
         <v>15039.179192011106</v>
       </c>
       <c r="S32" s="24">
-        <f>(R31+C18-E18-D18)*Investment_rate</f>
+        <f t="shared" si="21"/>
         <v>855.54136216760787</v>
       </c>
       <c r="T32" s="24">
+        <f t="shared" si="32"/>
+        <v>722.72220583517628</v>
+      </c>
+      <c r="U32" s="8">
+        <f t="shared" si="22"/>
+        <v>75.384872949967644</v>
+      </c>
+      <c r="V32" s="24">
+        <f t="shared" si="33"/>
+        <v>75.384872949967757</v>
+      </c>
+      <c r="Y32" s="23">
+        <f t="shared" si="23"/>
+        <v>15047.883694991606</v>
+      </c>
+      <c r="Z32" s="23">
+        <f t="shared" si="24"/>
+        <v>856.43301128228677</v>
+      </c>
+      <c r="AA32" s="24">
+        <f t="shared" si="34"/>
+        <v>716.56589023769448</v>
+      </c>
+      <c r="AB32" s="24">
         <f t="shared" si="25"/>
-        <v>722.72220583517628</v>
-      </c>
-      <c r="U32" s="8">
-        <f>G18+S32-T32</f>
-        <v>75.384872949967644</v>
-      </c>
-      <c r="V32" s="24">
-        <f t="shared" si="26"/>
-        <v>75.384872949967246</v>
-      </c>
-      <c r="Y32" s="23">
-        <f t="shared" si="20"/>
-        <v>15047.883694991606</v>
-      </c>
-      <c r="Z32" s="23">
-        <f>(Y31+C18-D18-E18)*Investment_rate</f>
-        <v>856.43301128228677</v>
-      </c>
-      <c r="AA32" s="24">
-        <f t="shared" si="27"/>
-        <v>716.56589023769448</v>
-      </c>
-      <c r="AB32" s="24">
-        <f>G18+Z32-AA32</f>
         <v>82.43283766212835</v>
       </c>
       <c r="AC32"/>
       <c r="AE32" s="23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>15198.362531941522</v>
       </c>
       <c r="AF32" s="23">
-        <f>(AE31+C18-D18-E18)*Investment_rate</f>
+        <f t="shared" si="27"/>
         <v>865.03180196513915</v>
       </c>
       <c r="AG32" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>723.73154914007137</v>
       </c>
       <c r="AH32" s="24">
-        <f>G18+AF32-AG32</f>
+        <f t="shared" si="29"/>
         <v>83.865969442603841</v>
       </c>
       <c r="AI32"/>
@@ -5651,7 +5680,7 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="J33" s="8">
@@ -5662,15 +5691,15 @@
         <v>0</v>
       </c>
       <c r="K33" s="8">
-        <f>(J32+C19-D19-E19)*Investment_rate</f>
+        <f t="shared" si="19"/>
         <v>894.35535168346337</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>-14964.505497107837</v>
       </c>
       <c r="M33" s="8">
-        <f>G19+K33-L33</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O33"/>
@@ -5679,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="23">
-        <f t="shared" si="19"/>
+        <f>'Policyholder cash flows'!H17*$R$6</f>
         <v>0</v>
       </c>
       <c r="R33" s="24">
@@ -5687,46 +5716,46 @@
         <v>0</v>
       </c>
       <c r="S33" s="24">
-        <f>(R32+C19-E19-D19)*Investment_rate</f>
+        <f t="shared" si="21"/>
         <v>898.83577337765951</v>
       </c>
       <c r="T33" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>-15039.179192011106</v>
       </c>
       <c r="U33" s="8">
-        <f>G19+S33-T33</f>
+        <f t="shared" si="22"/>
         <v>79.154116597464963</v>
       </c>
       <c r="V33" s="24">
-        <f t="shared" si="26"/>
-        <v>79.154116597465602</v>
+        <f t="shared" si="33"/>
+        <v>79.154116597466142</v>
       </c>
       <c r="Y33" s="23"/>
       <c r="Z33" s="23">
-        <f>(Y32+C19-D19-E19)*Investment_rate</f>
+        <f t="shared" si="24"/>
         <v>899.35804355648952</v>
       </c>
       <c r="AA33" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>-15047.883694991606</v>
       </c>
       <c r="AB33" s="24">
-        <f>G19+Z33-AA33</f>
+        <f t="shared" si="25"/>
         <v>88.380889756794204</v>
       </c>
       <c r="AC33"/>
       <c r="AE33" s="23"/>
       <c r="AF33" s="23">
-        <f>(AE32+C19-D19-E19)*Investment_rate</f>
+        <f t="shared" si="27"/>
         <v>908.38677377348449</v>
       </c>
       <c r="AG33" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-15198.362531941522</v>
       </c>
       <c r="AH33" s="24">
-        <f>G19+AF33-AG33</f>
+        <f t="shared" si="29"/>
         <v>247.88845692370523</v>
       </c>
       <c r="AI33"/>
@@ -5906,17 +5935,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="P21:W21"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="AE21:AI21"/>
     <mergeCell ref="AE7:AI7"/>
     <mergeCell ref="P7:W7"/>
     <mergeCell ref="Y7:AC7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:N7"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="P21:W21"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="AE21:AI21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5929,7 +5958,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5947,15 +5976,15 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
@@ -6080,7 +6109,7 @@
         <v>11228.962500000001</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="0"/>
+        <f>D10*Investment_rate</f>
         <v>673.73775000000012</v>
       </c>
       <c r="F10" s="8">
@@ -6298,8 +6327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6331,18 +6360,18 @@
       <c r="E3" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="22" t="s">
         <v>33</v>
       </c>
@@ -6692,21 +6721,21 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
     </row>
     <row r="34" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="22" t="s">
         <v>58</v>
       </c>
@@ -7157,21 +7186,21 @@
       <c r="H58"/>
     </row>
     <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="68" t="s">
+      <c r="A59" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="72"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="80"/>
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59"/>
     </row>
     <row r="60" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
+      <c r="A60" s="77"/>
       <c r="B60" s="22" t="s">
         <v>33</v>
       </c>
@@ -7537,21 +7566,21 @@
       <c r="H78"/>
     </row>
     <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="68" t="s">
+      <c r="A79" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B79" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="72"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="80"/>
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
     </row>
     <row r="80" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A80" s="69"/>
+      <c r="A80" s="77"/>
       <c r="B80" s="22" t="s">
         <v>33</v>
       </c>
@@ -7864,8 +7893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7880,36 +7909,36 @@
       <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="83" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="76"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="84"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
@@ -8225,50 +8254,50 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="75" t="s">
+      <c r="H24" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="77" t="s">
+      <c r="I24" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="79" t="s">
+      <c r="J24" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="79" t="s">
+      <c r="K24" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="79" t="s">
+      <c r="L24" s="81" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80" t="s">
+      <c r="A25" s="84"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="76"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80" t="s">
+      <c r="H25" s="84"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8699,50 +8728,50 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="79" t="s">
+      <c r="D40" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="79" t="s">
+      <c r="E40" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="75" t="s">
+      <c r="H40" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="77" t="s">
+      <c r="I40" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="79" t="s">
+      <c r="J40" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="79" t="s">
+      <c r="K40" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="L40" s="79" t="s">
+      <c r="L40" s="81" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="76"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80" t="s">
+      <c r="H41" s="84"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9166,6 +9195,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
@@ -9182,17 +9222,6 @@
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="K24:K25"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
